--- a/store/materials.xlsx
+++ b/store/materials.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,6 +463,19 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MAT141</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>store/materials/MAT141/conditional probability.pdf</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/store/materials.xlsx
+++ b/store/materials.xlsx
@@ -454,12 +454,12 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CSC103</t>
+          <t>MAT141</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>store/materials/CSC103/accessbank.png</t>
+          <t>store/materials/MAT141/conditional probability.pdf</t>
         </is>
       </c>
     </row>
@@ -467,12 +467,12 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MAT141</t>
+          <t>MAT111</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>store/materials/MAT141/conditional probability.pdf</t>
+          <t>store/materials/MAT111/10 Usability Heuristics for User Interface Design_1622399977365.pdf</t>
         </is>
       </c>
     </row>

--- a/store/materials.xlsx
+++ b/store/materials.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,19 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CSC103</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>store/materials/CSC103/conditional probability.pdf</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/store/materials.xlsx
+++ b/store/materials.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,7 +459,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>store/materials/MAT141/conditional probability.pdf</t>
+          <t>store/materials/MAT141/gitcommands.gif</t>
         </is>
       </c>
     </row>
@@ -467,25 +467,12 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MAT111</t>
+          <t>MILLONIARA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>store/materials/MAT111/10 Usability Heuristics for User Interface Design_1622399977365.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CSC103</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>store/materials/CSC103/conditional probability.pdf</t>
+          <t>store/materials/MILLONIARA/conditional probability.pdf</t>
         </is>
       </c>
     </row>
